--- a/train_test_final_dataset.xlsx
+++ b/train_test_final_dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="348">
   <si>
     <t>ICME_Datetime</t>
   </si>
@@ -1056,6 +1056,21 @@
   </si>
   <si>
     <t>17.07.2002 at 22h:18min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minute </t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1080,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1139,14 @@
       <color rgb="FF0075BD"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1188,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1355,10 +1378,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,7 +1391,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,11 +1676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M187" sqref="M187"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,12 +1694,13 @@
     <col min="7" max="7" width="4.109375" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="27.44140625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="31"/>
+    <col min="10" max="10" width="7.77734375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
@@ -1705,12 +1728,27 @@
       <c r="I1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="61"/>
+      <c r="L1" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="52">
         <v>35436.631944444453</v>
       </c>
@@ -1738,14 +1776,34 @@
       <c r="I2" s="32">
         <v>35440.220833333333</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="60">
         <v>130.36000000000001</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="60" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="31">
+        <f xml:space="preserve"> DAY(LEFT(K2, 2))</f>
+        <v>12</v>
+      </c>
+      <c r="M2" s="31" t="str">
+        <f xml:space="preserve"> MID(K2,4,2)</f>
+        <v>01</v>
+      </c>
+      <c r="N2" s="31" t="str">
+        <f xml:space="preserve"> MID(K2,7,4)</f>
+        <v>1997</v>
+      </c>
+      <c r="O2" s="31" t="str">
+        <f xml:space="preserve"> MID(K2,15,2)</f>
+        <v>01</v>
+      </c>
+      <c r="P2" s="31" t="str">
+        <f xml:space="preserve"> MID(K2,19,2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="52">
         <v>35468.020833333343</v>
       </c>
@@ -1773,14 +1831,34 @@
       <c r="I3" s="32">
         <v>35470.14166666667</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="60">
         <v>81.48</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="60" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="31">
+        <f t="shared" ref="L3:L66" si="0" xml:space="preserve"> DAY(LEFT(K3, 2))</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="31" t="str">
+        <f t="shared" ref="M3:M66" si="1" xml:space="preserve"> MID(K3,4,2)</f>
+        <v>02</v>
+      </c>
+      <c r="N3" s="31" t="str">
+        <f t="shared" ref="N3:N66" si="2" xml:space="preserve"> MID(K3,7,4)</f>
+        <v>1997</v>
+      </c>
+      <c r="O3" s="31" t="str">
+        <f t="shared" ref="O3:O66" si="3" xml:space="preserve"> MID(K3,15,2)</f>
+        <v>09</v>
+      </c>
+      <c r="P3" s="31" t="str">
+        <f t="shared" ref="P3:P66" si="4" xml:space="preserve"> MID(K3,19,2)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="52">
         <v>35527.602083333331</v>
       </c>
@@ -1808,14 +1886,34 @@
       <c r="I4" s="32">
         <v>35530.23333333333</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="60">
         <v>56.77</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="60" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M4" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O4" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P4" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="52">
         <v>35562.229166666657</v>
       </c>
@@ -1843,14 +1941,34 @@
       <c r="I5" s="32">
         <v>35565.379166666673</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="60">
         <v>85.43</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="60" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O5" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P5" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
         <v>35672.0625</v>
       </c>
@@ -1878,14 +1996,34 @@
       <c r="I6" s="32">
         <v>35675.5</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="60">
         <v>102.12</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="60" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N6" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O6" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="P6" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>35690.852777777778</v>
       </c>
@@ -1913,14 +2051,34 @@
       <c r="I7" s="32">
         <v>35694.033333333333</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="60">
         <v>101.14</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="60" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="31">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M7" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N7" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O7" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>01</v>
+      </c>
+      <c r="P7" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>35709.644444444442</v>
       </c>
@@ -1948,14 +2106,34 @@
       <c r="I8" s="32">
         <v>35713.991666666669</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="60">
         <v>113.46</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="60" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M8" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N8" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O8" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+      <c r="P8" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>35724.752083333333</v>
       </c>
@@ -1983,14 +2161,34 @@
       <c r="I9" s="32">
         <v>35727.708333333343</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="60">
         <v>77.44</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="60" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N9" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O9" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P9" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>35738.256944444453</v>
       </c>
@@ -2018,14 +2216,34 @@
       <c r="I10" s="32">
         <v>35740.658333333333</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="60">
         <v>60.28</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="60" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N10" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O10" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P10" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>35770.435416666667</v>
       </c>
@@ -2053,14 +2271,34 @@
       <c r="I11" s="32">
         <v>35774.777777777781</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="60">
         <v>97.77</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="60" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O11" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P11" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>35790.104861111111</v>
       </c>
@@ -2088,14 +2326,34 @@
       <c r="I12" s="32">
         <v>35794.75</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="60">
         <v>124.54</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="60" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M12" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N12" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="O12" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="P12" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="52">
         <v>35797.977777777778</v>
       </c>
@@ -2123,14 +2381,34 @@
       <c r="I13" s="32">
         <v>35801.137499999997</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="60">
         <v>90.3</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="60" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="N13" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O13" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P13" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="52">
         <v>35816.275694444441</v>
       </c>
@@ -2158,14 +2436,34 @@
       <c r="I14" s="32">
         <v>35819.236111111109</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="60">
         <v>103.71</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="60" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M14" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="N14" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O14" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P14" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="52">
         <v>35820.643055555563</v>
       </c>
@@ -2193,14 +2491,34 @@
       <c r="I15" s="32">
         <v>35823.572916666657</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="60">
         <v>64.64</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="60" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M15" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="N15" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O15" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+      <c r="P15" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="52">
         <v>35840.288194444453</v>
       </c>
@@ -2228,14 +2546,34 @@
       <c r="I16" s="32">
         <v>35844.881944444453</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="60">
         <v>131.5</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="60" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M16" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="N16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O16" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P16" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="52">
         <v>35854.533333333333</v>
       </c>
@@ -2263,14 +2601,34 @@
       <c r="I17" s="32">
         <v>35858.595833333333</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="60">
         <v>126.63</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="N17" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O17" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P17" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
         <v>35889.115277777782</v>
       </c>
@@ -2298,14 +2656,34 @@
       <c r="I18" s="32">
         <v>35892</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="60">
         <v>120.25</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="60" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M18" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+      <c r="N18" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O18" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>03</v>
+      </c>
+      <c r="P18" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="52">
         <v>35914.706944444442</v>
       </c>
@@ -2333,14 +2711,34 @@
       <c r="I19" s="32">
         <v>35916.512499999997</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="60">
         <v>45.16</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="N19" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O19" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P19" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="52">
         <v>35916.986111111109</v>
       </c>
@@ -2368,14 +2766,34 @@
       <c r="I20" s="32">
         <v>35918.791666666657</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="60">
         <v>71.67</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="60" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="N20" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O20" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P20" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="52">
         <v>35917.587500000001</v>
       </c>
@@ -2403,14 +2821,34 @@
       <c r="I21" s="32">
         <v>35919.5</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="60">
         <v>54.84</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="60" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="N21" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O21" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P21" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="52">
         <v>35942.572916666657</v>
       </c>
@@ -2438,14 +2876,34 @@
       <c r="I22" s="32">
         <v>35944.948611111111</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="60">
         <v>56.77</v>
       </c>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M22" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="N22" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O22" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P22" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="52">
         <v>35955.393750000003</v>
       </c>
@@ -2473,14 +2931,34 @@
       <c r="I23" s="32">
         <v>35959.083333333343</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="60">
         <v>131.41999999999999</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="60" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M23" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="N23" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O23" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P23" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="52">
         <v>35968.31527777778</v>
       </c>
@@ -2508,14 +2986,34 @@
       <c r="I24" s="32">
         <v>35971.083333333343</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="60">
         <v>115.37</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="60" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M24" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="N24" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O24" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>02</v>
+      </c>
+      <c r="P24" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="52">
         <v>36083.419444444437</v>
       </c>
@@ -2543,14 +3041,34 @@
       <c r="I25" s="32">
         <v>36086.212500000001</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="60">
         <v>117.34</v>
       </c>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="60" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M25" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O25" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="P25" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="52">
         <v>36103.32916666667</v>
       </c>
@@ -2578,14 +3096,34 @@
       <c r="I26" s="32">
         <v>36106.913194444453</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="60">
         <v>77.44</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="60" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M26" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N26" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O26" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P26" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="52">
         <v>36104.863888888889</v>
       </c>
@@ -2613,14 +3151,34 @@
       <c r="I27" s="32">
         <v>36107.991666666669</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="60">
         <v>50.12</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="60" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M27" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N27" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O27" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P27" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="52">
         <v>36107.495833333327</v>
       </c>
@@ -2648,14 +3206,34 @@
       <c r="I28" s="32">
         <v>36111.866666666669</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="60">
         <v>73.87</v>
       </c>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="60" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N28" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O28" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P28" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="52">
         <v>36108.762499999997</v>
       </c>
@@ -2683,14 +3261,34 @@
       <c r="I29" s="32">
         <v>36112.184027777781</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="60">
         <v>109.1</v>
       </c>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="60" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M29" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N29" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="O29" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="P29" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="52">
         <v>36263.145833333343</v>
       </c>
@@ -2718,14 +3316,34 @@
       <c r="I30" s="32">
         <v>36266.845833333333</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="60">
         <v>113.72</v>
       </c>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="60" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M30" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+      <c r="N30" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O30" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P30" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="52">
         <v>36283.254166666673</v>
       </c>
@@ -2753,14 +3371,34 @@
       <c r="I31" s="32">
         <v>36285.166666666657</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="60">
         <v>42.03</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="60" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="N31" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O31" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="P31" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="52">
         <v>36333.787499999999</v>
       </c>
@@ -2788,14 +3426,34 @@
       <c r="I32" s="32">
         <v>36337.25</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J32" s="60">
         <v>49.78</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="60" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M32" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="N32" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O32" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P32" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="52">
         <v>36335.563194444447</v>
       </c>
@@ -2823,14 +3481,34 @@
       <c r="I33" s="32">
         <v>36337.305555555547</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="60">
         <v>53.75</v>
       </c>
-      <c r="K33" s="56" t="s">
+      <c r="K33" s="60" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="M33" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="N33" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O33" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P33" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="52">
         <v>36340.82916666667</v>
       </c>
@@ -2858,14 +3536,34 @@
       <c r="I34" s="32">
         <v>36343.25</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J34" s="60">
         <v>73.78</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="60" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M34" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N34" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O34" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P34" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="52">
         <v>36344.82916666667</v>
       </c>
@@ -2893,14 +3591,34 @@
       <c r="I35" s="32">
         <v>36347.895833333343</v>
       </c>
-      <c r="J35" s="56">
+      <c r="J35" s="60">
         <v>76.069999999999993</v>
       </c>
-      <c r="K35" s="56" t="s">
+      <c r="K35" s="60" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M35" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N35" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P35" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="52">
         <v>36373.909722222219</v>
       </c>
@@ -2928,14 +3646,34 @@
       <c r="I36" s="32">
         <v>36376.194444444453</v>
       </c>
-      <c r="J36" s="56">
+      <c r="J36" s="60">
         <v>105.87</v>
       </c>
-      <c r="K36" s="56" t="s">
+      <c r="K36" s="60" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M36" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+      <c r="N36" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="P36" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="52">
         <v>36375.243055555547</v>
       </c>
@@ -2963,14 +3701,34 @@
       <c r="I37" s="32">
         <v>36380.449999999997</v>
       </c>
-      <c r="J37" s="56">
+      <c r="J37" s="60">
         <v>121.9</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="60" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M37" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+      <c r="N37" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O37" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+      <c r="P37" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="52">
         <v>36415.037499999999</v>
       </c>
@@ -2998,14 +3756,34 @@
       <c r="I38" s="32">
         <v>36418.449999999997</v>
       </c>
-      <c r="J38" s="56">
+      <c r="J38" s="60">
         <v>62.65</v>
       </c>
-      <c r="K38" s="56" t="s">
+      <c r="K38" s="60" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M38" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N38" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O38" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P38" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="52">
         <v>36416.729861111111</v>
       </c>
@@ -3033,14 +3811,34 @@
       <c r="I39" s="32">
         <v>36418.125</v>
       </c>
-      <c r="J39" s="56">
+      <c r="J39" s="60">
         <v>89.15</v>
       </c>
-      <c r="K39" s="56" t="s">
+      <c r="K39" s="60" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M39" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N39" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O39" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P39" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="52">
         <v>36423.254166666673</v>
       </c>
@@ -3068,14 +3866,34 @@
       <c r="I40" s="32">
         <v>36425.884722222218</v>
       </c>
-      <c r="J40" s="56">
+      <c r="J40" s="60">
         <v>70.209999999999994</v>
       </c>
-      <c r="K40" s="56" t="s">
+      <c r="K40" s="60" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M40" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N40" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O40" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>04</v>
+      </c>
+      <c r="P40" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="52">
         <v>36451.004166666673</v>
       </c>
@@ -3103,14 +3921,34 @@
       <c r="I41" s="32">
         <v>36454.399305555547</v>
       </c>
-      <c r="J41" s="56">
+      <c r="J41" s="60">
         <v>129.63999999999999</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="K41" s="60" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M41" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N41" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O41" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>09</v>
+      </c>
+      <c r="P41" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <v>36458.601388888892</v>
       </c>
@@ -3138,14 +3976,34 @@
       <c r="I42" s="32">
         <v>36461.125</v>
       </c>
-      <c r="J42" s="56">
+      <c r="J42" s="60">
         <v>78.81</v>
       </c>
-      <c r="K42" s="56" t="s">
+      <c r="K42" s="60" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M42" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N42" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O42" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P42" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="52">
         <v>36516.813194444447</v>
       </c>
@@ -3173,14 +4031,34 @@
       <c r="I43" s="32">
         <v>36520.779861111107</v>
       </c>
-      <c r="J43" s="56">
+      <c r="J43" s="60">
         <v>70.14</v>
       </c>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="60" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M43" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N43" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="O43" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P43" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="52">
         <v>36543.745833333327</v>
       </c>
@@ -3208,14 +4086,34 @@
       <c r="I44" s="32">
         <v>36547.743055555547</v>
       </c>
-      <c r="J44" s="56">
+      <c r="J44" s="60">
         <v>62.32</v>
       </c>
-      <c r="K44" s="56" t="s">
+      <c r="K44" s="60" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="31">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M44" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="N44" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O44" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+      <c r="P44" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="52">
         <v>36564.395833333343</v>
       </c>
@@ -3243,14 +4141,34 @@
       <c r="I45" s="32">
         <v>36567.708333333343</v>
       </c>
-      <c r="J45" s="56">
+      <c r="J45" s="60">
         <v>51.03</v>
       </c>
-      <c r="K45" s="56" t="s">
+      <c r="K45" s="60" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M45" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="N45" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O45" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P45" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="52">
         <v>36565.82916666667</v>
       </c>
@@ -3278,14 +4196,34 @@
       <c r="I46" s="32">
         <v>36567.712500000001</v>
       </c>
-      <c r="J46" s="56">
+      <c r="J46" s="60">
         <v>55.71</v>
       </c>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="60" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M46" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="N46" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O46" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>03</v>
+      </c>
+      <c r="P46" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="52">
         <v>36568.188194444447</v>
       </c>
@@ -3313,14 +4251,34 @@
       <c r="I47" s="32">
         <v>36570.520833333343</v>
       </c>
-      <c r="J47" s="56">
+      <c r="J47" s="60">
         <v>50.37</v>
       </c>
-      <c r="K47" s="56" t="s">
+      <c r="K47" s="60" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M47" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="N47" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O47" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+      <c r="P47" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="52">
         <v>36573.895833333343</v>
       </c>
@@ -3348,14 +4306,34 @@
       <c r="I48" s="32">
         <v>36576.408333333333</v>
       </c>
-      <c r="J48" s="56">
+      <c r="J48" s="60">
         <v>62.85</v>
       </c>
-      <c r="K48" s="56" t="s">
+      <c r="K48" s="60" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M48" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+      <c r="N48" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O48" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P48" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="52">
         <v>36620.688888888893</v>
       </c>
@@ -3383,14 +4361,34 @@
       <c r="I49" s="32">
         <v>36622.888888888891</v>
       </c>
-      <c r="J49" s="56">
+      <c r="J49" s="60">
         <v>48.6</v>
       </c>
-      <c r="K49" s="56" t="s">
+      <c r="K49" s="60" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M49" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+      <c r="N49" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O49" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P49" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="52">
         <v>36683.662499999999</v>
       </c>
@@ -3418,14 +4416,34 @@
       <c r="I50" s="32">
         <v>36685.5</v>
       </c>
-      <c r="J50" s="56">
+      <c r="J50" s="60">
         <v>50.1</v>
       </c>
-      <c r="K50" s="56" t="s">
+      <c r="K50" s="60" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M50" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="N50" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O50" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P50" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="52">
         <v>36697.381944444453</v>
       </c>
@@ -3453,14 +4471,34 @@
       <c r="I51" s="32">
         <v>36700.345833333333</v>
       </c>
-      <c r="J51" s="56">
+      <c r="J51" s="60">
         <v>68</v>
       </c>
-      <c r="K51" s="56" t="s">
+      <c r="K51" s="60" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M51" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="N51" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O51" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+      <c r="P51" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="52">
         <v>36714.43472222222</v>
       </c>
@@ -3488,14 +4526,34 @@
       <c r="I52" s="32">
         <v>36717.0625</v>
       </c>
-      <c r="J52" s="56">
+      <c r="J52" s="60">
         <v>87.41</v>
       </c>
-      <c r="K52" s="56" t="s">
+      <c r="K52" s="60" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M52" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N52" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O52" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>01</v>
+      </c>
+      <c r="P52" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="52">
         <v>36715.993055555547</v>
       </c>
@@ -3523,14 +4581,34 @@
       <c r="I53" s="32">
         <v>36718.949999999997</v>
       </c>
-      <c r="J53" s="56">
+      <c r="J53" s="60">
         <v>82.46</v>
       </c>
-      <c r="K53" s="56" t="s">
+      <c r="K53" s="60" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M53" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N53" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O53" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P53" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="52">
         <v>36717.909722222219</v>
       </c>
@@ -3558,14 +4636,34 @@
       <c r="I54" s="32">
         <v>36720.708333333343</v>
       </c>
-      <c r="J54" s="56">
+      <c r="J54" s="60">
         <v>45.53</v>
       </c>
-      <c r="K54" s="56" t="s">
+      <c r="K54" s="60" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M54" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N54" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O54" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P54" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="52">
         <v>36718.560416666667</v>
       </c>
@@ -3593,14 +4691,34 @@
       <c r="I55" s="32">
         <v>36721.283333333333</v>
       </c>
-      <c r="J55" s="56">
+      <c r="J55" s="60">
         <v>51.06</v>
       </c>
-      <c r="K55" s="56" t="s">
+      <c r="K55" s="60" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="31">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M55" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N55" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O55" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="P55" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="52">
         <v>36721.45416666667</v>
       </c>
@@ -3628,14 +4746,34 @@
       <c r="I56" s="32">
         <v>36722.879166666673</v>
       </c>
-      <c r="J56" s="56">
+      <c r="J56" s="60">
         <v>40.869999999999997</v>
       </c>
-      <c r="K56" s="56" t="s">
+      <c r="K56" s="60" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M56" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N56" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O56" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>03</v>
+      </c>
+      <c r="P56" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="52">
         <v>36724.370833333327</v>
       </c>
@@ -3663,14 +4801,34 @@
       <c r="I57" s="32">
         <v>36726.330555555563</v>
       </c>
-      <c r="J57" s="56">
+      <c r="J57" s="60">
         <v>60.15</v>
       </c>
-      <c r="K57" s="56" t="s">
+      <c r="K57" s="60" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M57" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N57" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O57" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P57" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="52">
         <v>36730.229166666657</v>
       </c>
@@ -3698,14 +4856,34 @@
       <c r="I58" s="32">
         <v>36733.352777777778</v>
       </c>
-      <c r="J58" s="56">
+      <c r="J58" s="60">
         <v>68.33</v>
       </c>
-      <c r="K58" s="56" t="s">
+      <c r="K58" s="60" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="M58" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N58" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O58" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>01</v>
+      </c>
+      <c r="P58" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
         <v>36732.145833333343</v>
       </c>
@@ -3733,14 +4911,34 @@
       <c r="I59" s="32">
         <v>36735.879166666673</v>
       </c>
-      <c r="J59" s="56">
+      <c r="J59" s="60">
         <v>76.900000000000006</v>
       </c>
-      <c r="K59" s="56" t="s">
+      <c r="K59" s="60" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M59" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>07</v>
+      </c>
+      <c r="N59" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O59" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+      <c r="P59" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="52">
         <v>36744.962500000001</v>
       </c>
@@ -3768,14 +4966,34 @@
       <c r="I60" s="32">
         <v>36748.791666666657</v>
       </c>
-      <c r="J60" s="56">
+      <c r="J60" s="60">
         <v>70.739999999999995</v>
       </c>
-      <c r="K60" s="56" t="s">
+      <c r="K60" s="60" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M60" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+      <c r="N60" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O60" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P60" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="52">
         <v>36747.6875</v>
       </c>
@@ -3803,14 +5021,34 @@
       <c r="I61" s="32">
         <v>36749.254166666673</v>
       </c>
-      <c r="J61" s="56">
+      <c r="J61" s="60">
         <v>64.16</v>
       </c>
-      <c r="K61" s="56" t="s">
+      <c r="K61" s="60" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M61" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+      <c r="N61" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O61" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>08</v>
+      </c>
+      <c r="P61" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="52">
         <v>36750.620833333327</v>
       </c>
@@ -3838,14 +5076,34 @@
       <c r="I62" s="32">
         <v>36752.083333333343</v>
       </c>
-      <c r="J62" s="56">
+      <c r="J62" s="60">
         <v>56.84</v>
       </c>
-      <c r="K62" s="56" t="s">
+      <c r="K62" s="60" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M62" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+      <c r="N62" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O62" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P62" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="52">
         <v>36773.254166666673</v>
       </c>
@@ -3873,14 +5131,34 @@
       <c r="I63" s="32">
         <v>36775.083333333343</v>
       </c>
-      <c r="J63" s="56">
+      <c r="J63" s="60">
         <v>57.79</v>
       </c>
-      <c r="K63" s="56" t="s">
+      <c r="K63" s="60" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M63" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N63" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O63" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P63" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="52">
         <v>36781.495833333327</v>
       </c>
@@ -3908,14 +5186,34 @@
       <c r="I64" s="32">
         <v>36784.806944444441</v>
       </c>
-      <c r="J64" s="56">
+      <c r="J64" s="60">
         <v>42.5</v>
       </c>
-      <c r="K64" s="56" t="s">
+      <c r="K64" s="60" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M64" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N64" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O64" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+      <c r="P64" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="52">
         <v>36785.220833333333</v>
       </c>
@@ -3943,14 +5241,34 @@
       <c r="I65" s="32">
         <v>36786.07916666667</v>
       </c>
-      <c r="J65" s="56">
+      <c r="J65" s="60">
         <v>48.05</v>
       </c>
-      <c r="K65" s="56" t="s">
+      <c r="K65" s="60" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="31">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M65" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>09</v>
+      </c>
+      <c r="N65" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O65" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+      <c r="P65" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="52">
         <v>36798.909722222219</v>
       </c>
@@ -3978,14 +5296,34 @@
       <c r="I66" s="32">
         <v>36802.712500000001</v>
       </c>
-      <c r="J66" s="56">
+      <c r="J66" s="60">
         <v>126.93</v>
       </c>
-      <c r="K66" s="56" t="s">
+      <c r="K66" s="60" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M66" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N66" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="O66" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>04</v>
+      </c>
+      <c r="P66" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="52">
         <v>36801.159722222219</v>
       </c>
@@ -4013,14 +5351,34 @@
       <c r="I67" s="32">
         <v>36804.550694444442</v>
       </c>
-      <c r="J67" s="56">
+      <c r="J67" s="60">
         <v>77.23</v>
       </c>
-      <c r="K67" s="56" t="s">
+      <c r="K67" s="60" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L67" s="31">
+        <f t="shared" ref="L67:L130" si="5" xml:space="preserve"> DAY(LEFT(K67, 2))</f>
+        <v>5</v>
+      </c>
+      <c r="M67" s="31" t="str">
+        <f t="shared" ref="M67:M130" si="6" xml:space="preserve"> MID(K67,4,2)</f>
+        <v>10</v>
+      </c>
+      <c r="N67" s="31" t="str">
+        <f t="shared" ref="N67:N130" si="7" xml:space="preserve"> MID(K67,7,4)</f>
+        <v>2000</v>
+      </c>
+      <c r="O67" s="31" t="str">
+        <f t="shared" ref="O67:O130" si="8" xml:space="preserve"> MID(K67,15,2)</f>
+        <v>09</v>
+      </c>
+      <c r="P67" s="31" t="str">
+        <f t="shared" ref="P67:P130" si="9" xml:space="preserve"> MID(K67,19,2)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="52">
         <v>36808.993055555547</v>
       </c>
@@ -4048,14 +5406,34 @@
       <c r="I68" s="32">
         <v>36811.76666666667</v>
       </c>
-      <c r="J68" s="56">
+      <c r="J68" s="60">
         <v>59.74</v>
       </c>
-      <c r="K68" s="56" t="s">
+      <c r="K68" s="60" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="31">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M68" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N68" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O68" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="P68" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="52">
         <v>36824.351388888892</v>
       </c>
@@ -4083,14 +5461,34 @@
       <c r="I69" s="32">
         <v>36827.970833333333</v>
       </c>
-      <c r="J69" s="56">
+      <c r="J69" s="60">
         <v>60.92</v>
       </c>
-      <c r="K69" s="56" t="s">
+      <c r="K69" s="60" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="31">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M69" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N69" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O69" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="P69" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="52">
         <v>36833.768055555563</v>
       </c>
@@ -4118,14 +5516,34 @@
       <c r="I70" s="32">
         <v>36836.962500000001</v>
       </c>
-      <c r="J70" s="56">
+      <c r="J70" s="60">
         <v>113.72</v>
       </c>
-      <c r="K70" s="56" t="s">
+      <c r="K70" s="60" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="31">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M70" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N70" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O70" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="P70" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="52">
         <v>36838.962500000001</v>
       </c>
@@ -4153,14 +5571,34 @@
       <c r="I71" s="32">
         <v>36840.75</v>
       </c>
-      <c r="J71" s="56">
+      <c r="J71" s="60">
         <v>40.1</v>
       </c>
-      <c r="K71" s="56" t="s">
+      <c r="K71" s="60" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="31">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M71" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N71" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O71" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P71" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="52">
         <v>36854.229166666657</v>
       </c>
@@ -4188,14 +5626,34 @@
       <c r="I72" s="32">
         <v>36856.333333333343</v>
       </c>
-      <c r="J72" s="56">
+      <c r="J72" s="60">
         <v>46.64</v>
       </c>
-      <c r="K72" s="56" t="s">
+      <c r="K72" s="60" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="31">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="M72" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N72" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O72" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="P72" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="52">
         <v>36855.063194444447</v>
       </c>
@@ -4223,14 +5681,34 @@
       <c r="I73" s="32">
         <v>36856.30972222222</v>
       </c>
-      <c r="J73" s="56">
+      <c r="J73" s="60">
         <v>33.07</v>
       </c>
-      <c r="K73" s="56" t="s">
+      <c r="K73" s="60" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="31">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="M73" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N73" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O73" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P73" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="52">
         <v>36856.712500000001</v>
       </c>
@@ -4258,14 +5736,34 @@
       <c r="I74" s="32">
         <v>36858.791666666657</v>
       </c>
-      <c r="J74" s="56">
+      <c r="J74" s="60">
         <v>53.61</v>
       </c>
-      <c r="K74" s="56" t="s">
+      <c r="K74" s="60" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M74" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N74" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O74" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="P74" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="52">
         <v>36901.037499999999</v>
       </c>
@@ -4293,15 +5791,34 @@
       <c r="I75" s="32">
         <v>36904.375</v>
       </c>
-      <c r="J75" s="56">
+      <c r="J75" s="60">
         <v>58.41</v>
       </c>
-      <c r="K75" s="56" t="s">
+      <c r="K75" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="L75" s="56"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="31">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M75" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="N75" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O75" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="P75" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="52">
         <v>36905.270833333343</v>
       </c>
@@ -4329,14 +5846,34 @@
       <c r="I76" s="32">
         <v>36908.025694444441</v>
       </c>
-      <c r="J76" s="56">
+      <c r="J76" s="60">
         <v>54.63</v>
       </c>
-      <c r="K76" s="56" t="s">
+      <c r="K76" s="60" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="31">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="M76" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="N76" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O76" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="P76" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="52">
         <v>36911.895833333343</v>
       </c>
@@ -4364,14 +5901,34 @@
       <c r="I77" s="32">
         <v>36914.375</v>
       </c>
-      <c r="J77" s="56">
+      <c r="J77" s="60">
         <v>43.11</v>
       </c>
-      <c r="K77" s="56" t="s">
+      <c r="K77" s="60" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="31">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="M77" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="N77" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O77" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="P77" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="52">
         <v>36937.57916666667</v>
       </c>
@@ -4399,14 +5956,34 @@
       <c r="I78" s="32">
         <v>36942.513888888891</v>
       </c>
-      <c r="J78" s="56">
+      <c r="J78" s="60">
         <v>68.73</v>
       </c>
-      <c r="K78" s="56" t="s">
+      <c r="K78" s="60" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L78" s="31">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M78" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="N78" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O78" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P78" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="52">
         <v>36950.618055555547</v>
       </c>
@@ -4434,14 +6011,34 @@
       <c r="I79" s="32">
         <v>36953.21597222222</v>
       </c>
-      <c r="J79" s="56">
+      <c r="J79" s="60">
         <v>110.78</v>
       </c>
-      <c r="K79" s="56" t="s">
+      <c r="K79" s="60" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L79" s="31">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M79" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N79" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O79" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="P79" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="52">
         <v>36966.159722222219</v>
       </c>
@@ -4469,14 +6066,34 @@
       <c r="I80" s="32">
         <v>36969.970833333333</v>
       </c>
-      <c r="J80" s="56">
+      <c r="J80" s="60">
         <v>116.24</v>
       </c>
-      <c r="K80" s="56" t="s">
+      <c r="K80" s="60" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="31">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="M80" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N80" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O80" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>00</v>
+      </c>
+      <c r="P80" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="52">
         <v>36969.226388888892</v>
       </c>
@@ -4504,14 +6121,34 @@
       <c r="I81" s="32">
         <v>36972.9375</v>
       </c>
-      <c r="J81" s="56">
+      <c r="J81" s="60">
         <v>99.14</v>
       </c>
-      <c r="K81" s="56" t="s">
+      <c r="K81" s="60" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M81" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N81" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O81" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="P81" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="52">
         <v>36975.712500000001</v>
       </c>
@@ -4539,14 +6176,34 @@
       <c r="I82" s="32">
         <v>36977.980555555558</v>
       </c>
-      <c r="J82" s="56">
+      <c r="J82" s="60">
         <v>65.52</v>
       </c>
-      <c r="K82" s="56" t="s">
+      <c r="K82" s="60" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M82" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N82" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O82" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P82" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="52">
         <v>36979.43472222222</v>
       </c>
@@ -4574,14 +6231,34 @@
       <c r="I83" s="32">
         <v>36981.208333333343</v>
       </c>
-      <c r="J83" s="56">
+      <c r="J83" s="60">
         <v>54.72</v>
       </c>
-      <c r="K83" s="56" t="s">
+      <c r="K83" s="60" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="31">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M83" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N83" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O83" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="P83" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="52">
         <v>36983.92083333333</v>
       </c>
@@ -4609,14 +6286,34 @@
       <c r="I84" s="32">
         <v>36985.870833333327</v>
       </c>
-      <c r="J84" s="56">
+      <c r="J84" s="60">
         <v>33.17</v>
       </c>
-      <c r="K84" s="56" t="s">
+      <c r="K84" s="60" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="31">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M84" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N84" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O84" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="P84" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="52">
         <v>36987.8125</v>
       </c>
@@ -4644,14 +6341,34 @@
       <c r="I85" s="32">
         <v>36989.791666666657</v>
       </c>
-      <c r="J85" s="56">
+      <c r="J85" s="60">
         <v>46.99</v>
       </c>
-      <c r="K85" s="56" t="s">
+      <c r="K85" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="31">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M85" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N85" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O85" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="P85" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="52">
         <v>36990.662499999999</v>
       </c>
@@ -4679,14 +6396,34 @@
       <c r="I86" s="32">
         <v>36992.9375</v>
       </c>
-      <c r="J86" s="56">
+      <c r="J86" s="60">
         <v>48.52</v>
       </c>
-      <c r="K86" s="56" t="s">
+      <c r="K86" s="60" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="31">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M86" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N86" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O86" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="P86" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="52">
         <v>36991.229166666657</v>
       </c>
@@ -4714,14 +6451,34 @@
       <c r="I87" s="32">
         <v>36992.32916666667</v>
       </c>
-      <c r="J87" s="56">
+      <c r="J87" s="60">
         <v>33.840000000000003</v>
       </c>
-      <c r="K87" s="56" t="s">
+      <c r="K87" s="60" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="31">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M87" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N87" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O87" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P87" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="52">
         <v>36992.563194444447</v>
       </c>
@@ -4749,14 +6506,34 @@
       <c r="I88" s="32">
         <v>36994.42291666667</v>
       </c>
-      <c r="J88" s="56">
+      <c r="J88" s="60">
         <v>50.46</v>
       </c>
-      <c r="K88" s="56" t="s">
+      <c r="K88" s="60" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="31">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M88" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N88" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O88" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P88" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="52">
         <v>36996.587500000001</v>
       </c>
@@ -4784,14 +6561,34 @@
       <c r="I89" s="32">
         <v>36999.072222222218</v>
       </c>
-      <c r="J89" s="56">
+      <c r="J89" s="60">
         <v>48.37</v>
       </c>
-      <c r="K89" s="56" t="s">
+      <c r="K89" s="60" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="31">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="M89" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N89" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O89" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="P89" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="52">
         <v>37000.520833333343</v>
       </c>
@@ -4819,14 +6616,34 @@
       <c r="I90" s="32">
         <v>37002.037499999999</v>
       </c>
-      <c r="J90" s="56">
+      <c r="J90" s="60">
         <v>98.63</v>
       </c>
-      <c r="K90" s="56" t="s">
+      <c r="K90" s="60" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M90" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N90" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O90" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P90" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="52">
         <v>37007.520833333343</v>
       </c>
@@ -4854,14 +6671,34 @@
       <c r="I91" s="32">
         <v>37009.07916666667</v>
       </c>
-      <c r="J91" s="56">
+      <c r="J91" s="60">
         <v>52.89</v>
       </c>
-      <c r="K91" s="56" t="s">
+      <c r="K91" s="60" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M91" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N91" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O91" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="P91" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="52">
         <v>37036.17083333333</v>
       </c>
@@ -4889,14 +6726,34 @@
       <c r="I92" s="32">
         <v>37038.495833333327</v>
       </c>
-      <c r="J92" s="56">
+      <c r="J92" s="60">
         <v>72.989999999999995</v>
       </c>
-      <c r="K92" s="56" t="s">
+      <c r="K92" s="60" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M92" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N92" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O92" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="P92" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="52">
         <v>37057.438194444447</v>
       </c>
@@ -4924,14 +6781,34 @@
       <c r="I93" s="32">
         <v>37060.965277777781</v>
       </c>
-      <c r="J93" s="56">
+      <c r="J93" s="60">
         <v>50.77</v>
       </c>
-      <c r="K93" s="56" t="s">
+      <c r="K93" s="60" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="31">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="M93" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="N93" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O93" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="P93" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="52">
         <v>37105.869444444441</v>
       </c>
@@ -4959,14 +6836,34 @@
       <c r="I94" s="32">
         <v>37108.956250000003</v>
       </c>
-      <c r="J94" s="56">
+      <c r="J94" s="60">
         <v>87.41</v>
       </c>
-      <c r="K94" s="56" t="s">
+      <c r="K94" s="60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="31">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M94" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N94" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O94" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="P94" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="52">
         <v>37112.4375</v>
       </c>
@@ -4994,14 +6891,34 @@
       <c r="I95" s="32">
         <v>37115.594444444447</v>
       </c>
-      <c r="J95" s="56">
+      <c r="J95" s="60">
         <v>83.05</v>
       </c>
-      <c r="K95" s="56" t="s">
+      <c r="K95" s="60" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="31">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M95" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N95" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O95" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="P95" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="52">
         <v>37117.667361111111</v>
       </c>
@@ -5029,14 +6946,34 @@
       <c r="I96" s="32">
         <v>37120.943055555559</v>
       </c>
-      <c r="J96" s="56">
+      <c r="J96" s="60">
         <v>69.209999999999994</v>
       </c>
-      <c r="K96" s="56" t="s">
+      <c r="K96" s="60" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="31">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="M96" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N96" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O96" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="P96" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="52">
         <v>37130.726388888892</v>
       </c>
@@ -5064,14 +7001,34 @@
       <c r="I97" s="32">
         <v>37133.833333333343</v>
       </c>
-      <c r="J97" s="56">
+      <c r="J97" s="60">
         <v>95.84</v>
       </c>
-      <c r="K97" s="56" t="s">
+      <c r="K97" s="60" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="31">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M97" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N97" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O97" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="P97" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="52">
         <v>37145.620833333327</v>
       </c>
@@ -5099,14 +7056,34 @@
       <c r="I98" s="32">
         <v>37148.308333333327</v>
       </c>
-      <c r="J98" s="56">
+      <c r="J98" s="60">
         <v>60.03</v>
       </c>
-      <c r="K98" s="56" t="s">
+      <c r="K98" s="60" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="31">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="M98" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>09</v>
+      </c>
+      <c r="N98" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O98" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="P98" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="52">
         <v>37158.4375</v>
       </c>
@@ -5134,14 +7111,34 @@
       <c r="I99" s="32">
         <v>37159.145833333343</v>
       </c>
-      <c r="J99" s="56">
+      <c r="J99" s="60">
         <v>33.909999999999997</v>
       </c>
-      <c r="K99" s="56" t="s">
+      <c r="K99" s="60" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="31">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="M99" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>09</v>
+      </c>
+      <c r="N99" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O99" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="P99" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="52">
         <v>37161.337500000001</v>
       </c>
@@ -5169,14 +7166,34 @@
       <c r="I100" s="32">
         <v>37163.043749999997</v>
       </c>
-      <c r="J100" s="56">
+      <c r="J100" s="60">
         <v>65.98</v>
       </c>
-      <c r="K100" s="56" t="s">
+      <c r="K100" s="60" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="31">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M100" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>09</v>
+      </c>
+      <c r="N100" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O100" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="P100" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="52">
         <v>37162.370833333327</v>
       </c>
@@ -5204,14 +7221,34 @@
       <c r="I101" s="32">
         <v>37164.902777777781</v>
       </c>
-      <c r="J101" s="56">
+      <c r="J101" s="60">
         <v>57.9</v>
       </c>
-      <c r="K101" s="56" t="s">
+      <c r="K101" s="60" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="31">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M101" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>09</v>
+      </c>
+      <c r="N101" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O101" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="P101" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="52">
         <v>37173.479166666657</v>
       </c>
@@ -5239,14 +7276,34 @@
       <c r="I102" s="32">
         <v>37175.177777777782</v>
       </c>
-      <c r="J102" s="56">
+      <c r="J102" s="60">
         <v>53.81</v>
       </c>
-      <c r="K102" s="56" t="s">
+      <c r="K102" s="60" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="31">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M102" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N102" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O102" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="P102" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="52">
         <v>37183.701388888891</v>
       </c>
@@ -5274,14 +7331,34 @@
       <c r="I103" s="32">
         <v>37185.956250000003</v>
       </c>
-      <c r="J103" s="56">
+      <c r="J103" s="60">
         <v>56</v>
       </c>
-      <c r="K103" s="56" t="s">
+      <c r="K103" s="60" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="31">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="M103" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N103" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O103" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>00</v>
+      </c>
+      <c r="P103" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="52">
         <v>37186.629166666673</v>
       </c>
@@ -5309,14 +7386,34 @@
       <c r="I104" s="32">
         <v>37189.875</v>
       </c>
-      <c r="J104" s="56">
+      <c r="J104" s="60">
         <v>45.81</v>
       </c>
-      <c r="K104" s="56" t="s">
+      <c r="K104" s="60" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="31">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="M104" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N104" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O104" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="P104" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="52">
         <v>37189.643055555563</v>
       </c>
@@ -5344,14 +7441,34 @@
       <c r="I105" s="32">
         <v>37192.666666666657</v>
       </c>
-      <c r="J105" s="56">
+      <c r="J105" s="60">
         <v>50.72</v>
       </c>
-      <c r="K105" s="56" t="s">
+      <c r="K105" s="60" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="31">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M105" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N105" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O105" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="P105" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="52">
         <v>37199.690972222219</v>
       </c>
@@ -5379,14 +7496,34 @@
       <c r="I106" s="32">
         <v>37201.25</v>
       </c>
-      <c r="J106" s="56">
+      <c r="J106" s="60">
         <v>39.28</v>
       </c>
-      <c r="K106" s="56" t="s">
+      <c r="K106" s="60" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" s="31">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M106" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N106" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O106" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="P106" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="52">
         <v>37212.229166666657</v>
       </c>
@@ -5414,14 +7551,34 @@
       <c r="I107" s="32">
         <v>37214.125</v>
       </c>
-      <c r="J107" s="56">
+      <c r="J107" s="60">
         <v>45.08</v>
       </c>
-      <c r="K107" s="56" t="s">
+      <c r="K107" s="60" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107" s="31">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="M107" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N107" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O107" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="P107" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="52">
         <v>37217.979166666657</v>
       </c>
@@ -5449,14 +7606,34 @@
       <c r="I108" s="32">
         <v>37219.658333333333</v>
       </c>
-      <c r="J108" s="56">
+      <c r="J108" s="60">
         <v>44.15</v>
       </c>
-      <c r="K108" s="56" t="s">
+      <c r="K108" s="60" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108" s="31">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="M108" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N108" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O108" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="P108" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="52">
         <v>37251.229166666657</v>
       </c>
@@ -5484,14 +7661,34 @@
       <c r="I109" s="32">
         <v>37254.0625</v>
       </c>
-      <c r="J109" s="56">
+      <c r="J109" s="60">
         <v>44.01</v>
       </c>
-      <c r="K109" s="56" t="s">
+      <c r="K109" s="60" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M109" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="N109" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2001</v>
+      </c>
+      <c r="O109" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P109" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="52">
         <v>37284.45416666667</v>
       </c>
@@ -5519,14 +7716,34 @@
       <c r="I110" s="32">
         <v>37287.458333333343</v>
       </c>
-      <c r="J110" s="56">
+      <c r="J110" s="60">
         <v>77.34</v>
       </c>
-      <c r="K110" s="56" t="s">
+      <c r="K110" s="60" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L110" s="31">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M110" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="N110" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O110" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="P110" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="52">
         <v>37311.645833333343</v>
       </c>
@@ -5554,14 +7771,34 @@
       <c r="I111" s="40">
         <v>37315.700694444437</v>
       </c>
-      <c r="J111" s="56">
+      <c r="J111" s="60">
         <v>120.92</v>
       </c>
-      <c r="K111" s="56" t="s">
+      <c r="K111" s="60" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L111" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M111" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N111" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O111" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="P111" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="52">
         <v>37330.962500000001</v>
       </c>
@@ -5589,14 +7826,34 @@
       <c r="I112" s="40">
         <v>37333.95416666667</v>
       </c>
-      <c r="J112" s="56">
+      <c r="J112" s="60">
         <v>54.27</v>
       </c>
-      <c r="K112" s="56" t="s">
+      <c r="K112" s="60" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L112" s="31">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M112" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N112" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O112" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="P112" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="52">
         <v>37333.120833333327</v>
       </c>
@@ -5624,14 +7881,34 @@
       <c r="I113" s="40">
         <v>37335.686111111107</v>
       </c>
-      <c r="J113" s="56">
+      <c r="J113" s="60">
         <v>53.36</v>
       </c>
-      <c r="K113" s="56" t="s">
+      <c r="K113" s="60" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L113" s="31">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M113" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N113" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O113" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="P113" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="52">
         <v>37335.745833333327</v>
       </c>
@@ -5659,14 +7936,34 @@
       <c r="I114" s="40">
         <v>37338.158333333333</v>
       </c>
-      <c r="J114" s="56">
+      <c r="J114" s="60">
         <v>70.290000000000006</v>
       </c>
-      <c r="K114" s="56" t="s">
+      <c r="K114" s="60" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L114" s="31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M114" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N114" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O114" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="P114" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="52">
         <v>37335.995833333327</v>
       </c>
@@ -5694,14 +7991,34 @@
       <c r="I115" s="40">
         <v>37340.25</v>
       </c>
-      <c r="J115" s="56">
+      <c r="J115" s="60">
         <v>51.13</v>
       </c>
-      <c r="K115" s="56" t="s">
+      <c r="K115" s="60" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L115" s="31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M115" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>03</v>
+      </c>
+      <c r="N115" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O115" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>03</v>
+      </c>
+      <c r="P115" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="52">
         <v>37361.159722222219</v>
       </c>
@@ -5729,14 +8046,34 @@
       <c r="I116" s="40">
         <v>37363.179166666669</v>
       </c>
-      <c r="J116" s="56">
+      <c r="J116" s="60">
         <v>63.24</v>
       </c>
-      <c r="K116" s="56" t="s">
+      <c r="K116" s="60" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L116" s="31">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="M116" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N116" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O116" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="P116" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="52">
         <v>37363.351388888892</v>
       </c>
@@ -5764,14 +8101,34 @@
       <c r="I117" s="40">
         <v>37365.491666666669</v>
       </c>
-      <c r="J117" s="56">
+      <c r="J117" s="60">
         <v>47.56</v>
       </c>
-      <c r="K117" s="56" t="s">
+      <c r="K117" s="60" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L117" s="31">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="M117" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="N117" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O117" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="P117" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="52">
         <v>37383.17083333333</v>
       </c>
@@ -5799,14 +8156,34 @@
       <c r="I118" s="40">
         <v>37386.916666666657</v>
       </c>
-      <c r="J118" s="56">
+      <c r="J118" s="60">
         <v>63.24</v>
       </c>
-      <c r="K118" s="56" t="s">
+      <c r="K118" s="60" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L118" s="31">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="M118" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N118" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O118" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="P118" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="52">
         <v>37384.576388888891</v>
       </c>
@@ -5834,14 +8211,34 @@
       <c r="I119" s="40">
         <v>37387.541666666657</v>
       </c>
-      <c r="J119" s="56">
+      <c r="J119" s="60">
         <v>69.489999999999995</v>
       </c>
-      <c r="K119" s="56" t="s">
+      <c r="K119" s="60" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L119" s="31">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M119" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N119" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O119" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="P119" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="52">
         <v>37392.034722222219</v>
       </c>
@@ -5869,14 +8266,34 @@
       <c r="I120" s="40">
         <v>37394.162499999999</v>
       </c>
-      <c r="J120" s="56">
+      <c r="J120" s="60">
         <v>70.510000000000005</v>
       </c>
-      <c r="K120" s="56" t="s">
+      <c r="K120" s="60" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L120" s="31">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M120" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N120" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O120" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="P120" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="52">
         <v>37393.060416666667</v>
       </c>
@@ -5904,14 +8321,34 @@
       <c r="I121" s="40">
         <v>37396.625</v>
       </c>
-      <c r="J121" s="56">
+      <c r="J121" s="60">
         <v>85.95</v>
       </c>
-      <c r="K121" s="56" t="s">
+      <c r="K121" s="60" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L121" s="31">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M121" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N121" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O121" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P121" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="52">
         <v>37394.493055555547</v>
       </c>
@@ -5939,14 +8376,34 @@
       <c r="I122" s="40">
         <v>37397</v>
       </c>
-      <c r="J122" s="56">
+      <c r="J122" s="60">
         <v>69.489999999999995</v>
       </c>
-      <c r="K122" s="56" t="s">
+      <c r="K122" s="60" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L122" s="31">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="M122" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N122" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O122" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>09</v>
+      </c>
+      <c r="P122" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="52">
         <v>37398.159722222219</v>
       </c>
@@ -5974,14 +8431,34 @@
       <c r="I123" s="40">
         <v>37399.974999999999</v>
       </c>
-      <c r="J123" s="56">
+      <c r="J123" s="60">
         <v>42.4</v>
       </c>
-      <c r="K123" s="56" t="s">
+      <c r="K123" s="60" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123" s="31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M123" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N123" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O123" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="P123" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="52">
         <v>37403.560416666667</v>
       </c>
@@ -6009,14 +8486,34 @@
       <c r="I124" s="32">
         <v>37406.29791666667</v>
       </c>
-      <c r="J124" s="56">
+      <c r="J124" s="60">
         <v>50.39</v>
       </c>
-      <c r="K124" s="56" t="s">
+      <c r="K124" s="60" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124" s="31">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="M124" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="N124" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O124" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P124" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="52">
         <v>37452.895833333343</v>
       </c>
@@ -6044,14 +8541,34 @@
       <c r="I125" s="32">
         <v>37454.5</v>
       </c>
-      <c r="J125" s="56">
+      <c r="J125" s="60">
         <v>46.44</v>
       </c>
-      <c r="K125" s="56" t="s">
+      <c r="K125" s="60" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125" s="31">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="M125" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="N125" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O125" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="P125" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="52">
         <v>37455.337500000001</v>
       </c>
@@ -6079,14 +8596,34 @@
       <c r="I126" s="32">
         <v>37456.375</v>
       </c>
-      <c r="J126" s="56">
+      <c r="J126" s="60">
         <v>50.56</v>
       </c>
-      <c r="K126" s="56" t="s">
+      <c r="K126" s="60" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126" s="31">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M126" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="N126" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O126" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P126" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="52">
         <v>37463.92083333333</v>
       </c>
@@ -6114,14 +8651,34 @@
       <c r="I127" s="32">
         <v>37466.333333333343</v>
       </c>
-      <c r="J127" s="56">
+      <c r="J127" s="60">
         <v>58.95</v>
       </c>
-      <c r="K127" s="56" t="s">
+      <c r="K127" s="60" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127" s="31">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="M127" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="N127" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O127" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>09</v>
+      </c>
+      <c r="P127" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="52">
         <v>37466.504861111112</v>
       </c>
@@ -6149,14 +8706,34 @@
       <c r="I128" s="32">
         <v>37469.495833333327</v>
       </c>
-      <c r="J128" s="56">
+      <c r="J128" s="60">
         <v>73.599999999999994</v>
       </c>
-      <c r="K128" s="56" t="s">
+      <c r="K128" s="60" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M128" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N128" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O128" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="P128" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="52">
         <v>37466.979166666657</v>
       </c>
@@ -6184,14 +8761,34 @@
       <c r="I129" s="32">
         <v>37469.308333333327</v>
       </c>
-      <c r="J129" s="56">
+      <c r="J129" s="60">
         <v>103.87</v>
       </c>
-      <c r="K129" s="56" t="s">
+      <c r="K129" s="60" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129" s="31">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M129" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N129" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O129" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="P129" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="52">
         <v>37484.520833333343</v>
       </c>
@@ -6219,14 +8816,34 @@
       <c r="I130" s="32">
         <v>37486.197916666657</v>
       </c>
-      <c r="J130" s="56">
+      <c r="J130" s="60">
         <v>42.02</v>
       </c>
-      <c r="K130" s="56" t="s">
+      <c r="K130" s="60" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130" s="31">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M130" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="N130" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>2002</v>
+      </c>
+      <c r="O130" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="P130" s="31" t="str">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="52">
         <v>37486.912499999999</v>
       </c>
@@ -6254,14 +8871,34 @@
       <c r="I131" s="32">
         <v>37488</v>
       </c>
-      <c r="J131" s="56">
+      <c r="J131" s="60">
         <v>65.239999999999995</v>
       </c>
-      <c r="K131" s="56" t="s">
+      <c r="K131" s="60" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131" s="31">
+        <f t="shared" ref="L131:L185" si="10" xml:space="preserve"> DAY(LEFT(K131, 2))</f>
+        <v>21</v>
+      </c>
+      <c r="M131" s="31" t="str">
+        <f t="shared" ref="M131:M185" si="11" xml:space="preserve"> MID(K131,4,2)</f>
+        <v>08</v>
+      </c>
+      <c r="N131" s="31" t="str">
+        <f t="shared" ref="N131:N185" si="12" xml:space="preserve"> MID(K131,7,4)</f>
+        <v>2002</v>
+      </c>
+      <c r="O131" s="31" t="str">
+        <f t="shared" ref="O131:O185" si="13" xml:space="preserve"> MID(K131,15,2)</f>
+        <v>15</v>
+      </c>
+      <c r="P131" s="31" t="str">
+        <f t="shared" ref="P131:P185" si="14" xml:space="preserve"> MID(K131,19,2)</f>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="52">
         <v>37504.70416666667</v>
       </c>
@@ -6289,14 +8926,34 @@
       <c r="I132" s="32">
         <v>37506.5</v>
       </c>
-      <c r="J132" s="56">
+      <c r="J132" s="60">
         <v>39.979999999999997</v>
       </c>
-      <c r="K132" s="56" t="s">
+      <c r="K132" s="60" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132" s="31">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M132" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="N132" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="O132" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="P132" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="52">
         <v>37527.462500000001</v>
       </c>
@@ -6324,14 +8981,34 @@
       <c r="I133" s="32">
         <v>37529.941666666673</v>
       </c>
-      <c r="J133" s="56">
+      <c r="J133" s="60">
         <v>65.459999999999994</v>
       </c>
-      <c r="K133" s="56" t="s">
+      <c r="K133" s="60" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133" s="31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M133" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N133" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="O133" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>04</v>
+      </c>
+      <c r="P133" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="52">
         <v>37529.063194444447</v>
       </c>
@@ -6359,14 +9036,34 @@
       <c r="I134" s="32">
         <v>37531.109027777777</v>
       </c>
-      <c r="J134" s="56">
+      <c r="J134" s="60">
         <v>111.6</v>
       </c>
-      <c r="K134" s="56" t="s">
+      <c r="K134" s="60" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134" s="31">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M134" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N134" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="O134" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="P134" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="52">
         <v>37566.254166666673</v>
       </c>
@@ -6394,14 +9091,34 @@
       <c r="I135" s="32">
         <v>37569.3125</v>
       </c>
-      <c r="J135" s="56">
+      <c r="J135" s="60">
         <v>82.18</v>
       </c>
-      <c r="K135" s="56" t="s">
+      <c r="K135" s="60" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135" s="31">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M135" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N135" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="O135" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="P135" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="52">
         <v>37584.854166666657</v>
       </c>
@@ -6429,14 +9146,34 @@
       <c r="I136" s="32">
         <v>37586.776388888888</v>
       </c>
-      <c r="J136" s="56">
+      <c r="J136" s="60">
         <v>51.08</v>
       </c>
-      <c r="K136" s="56" t="s">
+      <c r="K136" s="60" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136" s="31">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="M136" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N136" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="O136" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="P136" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="52">
         <v>37698.520833333343</v>
       </c>
@@ -6464,14 +9201,34 @@
       <c r="I137" s="32">
         <v>37700.495833333327</v>
       </c>
-      <c r="J137" s="56">
+      <c r="J137" s="60">
         <v>41.81</v>
       </c>
-      <c r="K137" s="56" t="s">
+      <c r="K137" s="60" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137" s="31">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M137" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>03</v>
+      </c>
+      <c r="N137" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O137" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>06</v>
+      </c>
+      <c r="P137" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="52">
         <v>37768.993055555547</v>
       </c>
@@ -6499,14 +9256,34 @@
       <c r="I138" s="32">
         <v>37770.541666666657</v>
       </c>
-      <c r="J138" s="56">
+      <c r="J138" s="60">
         <v>54.07</v>
       </c>
-      <c r="K138" s="56" t="s">
+      <c r="K138" s="60" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138" s="31">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="M138" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N138" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O138" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>05</v>
+      </c>
+      <c r="P138" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="52">
         <v>37769.034722222219</v>
       </c>
@@ -6534,14 +9311,34 @@
       <c r="I139" s="32">
         <v>37770.083333333343</v>
       </c>
-      <c r="J139" s="56">
+      <c r="J139" s="60">
         <v>45.3</v>
       </c>
-      <c r="K139" s="56" t="s">
+      <c r="K139" s="60" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139" s="31">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="M139" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N139" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O139" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="P139" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="52">
         <v>37770.060416666667</v>
       </c>
@@ -6569,14 +9366,34 @@
       <c r="I140" s="32">
         <v>37771.916666666657</v>
       </c>
-      <c r="J140" s="56">
+      <c r="J140" s="60">
         <v>47.62</v>
       </c>
-      <c r="K140" s="56" t="s">
+      <c r="K140" s="60" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140" s="31">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="M140" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N140" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O140" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="P140" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="52">
         <v>37847.837500000001</v>
       </c>
@@ -6604,14 +9421,34 @@
       <c r="I141" s="32">
         <v>37850.48333333333</v>
       </c>
-      <c r="J141" s="56">
+      <c r="J141" s="60">
         <v>100.98</v>
       </c>
-      <c r="K141" s="56" t="s">
+      <c r="K141" s="60" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141" s="31">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M141" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="N141" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O141" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="P141" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="52">
         <v>37920.745833333327</v>
       </c>
@@ -6639,14 +9476,34 @@
       <c r="I142" s="32">
         <v>37922.104166666657</v>
       </c>
-      <c r="J142" s="56">
+      <c r="J142" s="60">
         <v>42.68</v>
       </c>
-      <c r="K142" s="56" t="s">
+      <c r="K142" s="60" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142" s="31">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="M142" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N142" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O142" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="P142" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="52">
         <v>37922.479166666657</v>
       </c>
@@ -6674,14 +9531,34 @@
       <c r="I143" s="32">
         <v>37923.333333333343</v>
       </c>
-      <c r="J143" s="56">
+      <c r="J143" s="60">
         <v>33.49</v>
       </c>
-      <c r="K143" s="56" t="s">
+      <c r="K143" s="60" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143" s="31">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="M143" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N143" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O143" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="P143" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="52">
         <v>37923.870833333327</v>
       </c>
@@ -6709,14 +9586,34 @@
       <c r="I144" s="32">
         <v>37924.083333333343</v>
       </c>
-      <c r="J144" s="56">
+      <c r="J144" s="60">
         <v>37.04</v>
       </c>
-      <c r="K144" s="56" t="s">
+      <c r="K144" s="60" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144" s="31">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="M144" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N144" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O144" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="P144" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="52">
         <v>37943.368055555547</v>
       </c>
@@ -6744,14 +9641,34 @@
       <c r="I145" s="32">
         <v>37945.5</v>
       </c>
-      <c r="J145" s="56">
+      <c r="J145" s="60">
         <v>41.05</v>
       </c>
-      <c r="K145" s="56" t="s">
+      <c r="K145" s="60" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145" s="31">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M145" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N145" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2003</v>
+      </c>
+      <c r="O145" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="P145" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="52">
         <v>38006.004166666673</v>
       </c>
@@ -6779,14 +9696,34 @@
       <c r="I146" s="32">
         <v>38008.333333333343</v>
       </c>
-      <c r="J146" s="56">
+      <c r="J146" s="60">
         <v>54.04</v>
       </c>
-      <c r="K146" s="56" t="s">
+      <c r="K146" s="60" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146" s="31">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="M146" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N146" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O146" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>06</v>
+      </c>
+      <c r="P146" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="52">
         <v>38007.20416666667</v>
       </c>
@@ -6814,14 +9751,34 @@
       <c r="I147" s="32">
         <v>38009.958333333343</v>
       </c>
-      <c r="J147" s="56">
+      <c r="J147" s="60">
         <v>61.27</v>
       </c>
-      <c r="K147" s="56" t="s">
+      <c r="K147" s="60" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147" s="31">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="M147" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N147" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O147" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="P147" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="52">
         <v>38188.563194444447</v>
       </c>
@@ -6849,14 +9806,34 @@
       <c r="I148" s="32">
         <v>38190.64166666667</v>
       </c>
-      <c r="J148" s="56">
+      <c r="J148" s="60">
         <v>63.74</v>
       </c>
-      <c r="K148" s="56" t="s">
+      <c r="K148" s="60" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148" s="31">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="M148" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="N148" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O148" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>05</v>
+      </c>
+      <c r="P148" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="52">
         <v>38190.354166666657</v>
       </c>
@@ -6884,14 +9861,34 @@
       <c r="I149" s="32">
         <v>38192.533333333333</v>
       </c>
-      <c r="J149" s="56">
+      <c r="J149" s="60">
         <v>56.07</v>
       </c>
-      <c r="K149" s="56" t="s">
+      <c r="K149" s="60" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149" s="31">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="M149" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="N149" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O149" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="P149" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="52">
         <v>38193.620833333327</v>
       </c>
@@ -6919,14 +9916,34 @@
       <c r="I150" s="32">
         <v>38194.166666666657</v>
       </c>
-      <c r="J150" s="56">
+      <c r="J150" s="60">
         <v>45.86</v>
       </c>
-      <c r="K150" s="56" t="s">
+      <c r="K150" s="60" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150" s="31">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="M150" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="N150" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O150" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="P150" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="52">
         <v>38199.245833333327</v>
       </c>
@@ -6954,14 +9971,34 @@
       <c r="I151" s="32">
         <v>38200.647916666669</v>
       </c>
-      <c r="J151" s="56">
+      <c r="J151" s="60">
         <v>48.52</v>
       </c>
-      <c r="K151" s="56" t="s">
+      <c r="K151" s="60" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M151" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="N151" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O151" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>06</v>
+      </c>
+      <c r="P151" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="52">
         <v>38225.520833333343</v>
       </c>
@@ -6989,14 +10026,34 @@
       <c r="I152" s="32">
         <v>38228.779166666667</v>
       </c>
-      <c r="J152" s="56">
+      <c r="J152" s="60">
         <v>125.85</v>
       </c>
-      <c r="K152" s="56" t="s">
+      <c r="K152" s="60" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152" s="31">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="M152" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="N152" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O152" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="P152" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="52">
         <v>38242.025000000001</v>
       </c>
@@ -7024,14 +10081,34 @@
       <c r="I153" s="32">
         <v>38243.785416666673</v>
       </c>
-      <c r="J153" s="56">
+      <c r="J153" s="60">
         <v>45.94</v>
       </c>
-      <c r="K153" s="56" t="s">
+      <c r="K153" s="60" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153" s="31">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M153" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="N153" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O153" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="P153" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="52">
         <v>38295.412499999999</v>
       </c>
@@ -7059,14 +10136,34 @@
       <c r="I154" s="32">
         <v>38298.194444444453</v>
       </c>
-      <c r="J154" s="56">
+      <c r="J154" s="60">
         <v>66.930000000000007</v>
       </c>
-      <c r="K154" s="56" t="s">
+      <c r="K154" s="60" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154" s="31">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M154" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N154" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O154" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>04</v>
+      </c>
+      <c r="P154" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="52">
         <v>38295.979166666657</v>
       </c>
@@ -7094,14 +10191,34 @@
       <c r="I155" s="32">
         <v>38298.14166666667</v>
       </c>
-      <c r="J155" s="56">
+      <c r="J155" s="60">
         <v>51.62</v>
       </c>
-      <c r="K155" s="56" t="s">
+      <c r="K155" s="60" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155" s="31">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M155" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N155" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O155" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>03</v>
+      </c>
+      <c r="P155" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="52">
         <v>38297.087500000001</v>
       </c>
@@ -7129,14 +10246,34 @@
       <c r="I156" s="32">
         <v>38300.870833333327</v>
       </c>
-      <c r="J156" s="56">
+      <c r="J156" s="60">
         <v>50.28</v>
       </c>
-      <c r="K156" s="56" t="s">
+      <c r="K156" s="60" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156" s="31">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M156" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N156" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O156" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>04</v>
+      </c>
+      <c r="P156" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="52">
         <v>38298.70416666667</v>
       </c>
@@ -7164,14 +10301,34 @@
       <c r="I157" s="32">
         <v>38300.15</v>
       </c>
-      <c r="J157" s="56">
+      <c r="J157" s="60">
         <v>39.85</v>
       </c>
-      <c r="K157" s="56" t="s">
+      <c r="K157" s="60" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="31">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M157" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N157" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O157" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="P157" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="52">
         <v>38329.851388888892</v>
       </c>
@@ -7199,14 +10356,34 @@
       <c r="I158" s="40">
         <v>38332.5</v>
       </c>
-      <c r="J158" s="56">
+      <c r="J158" s="60">
         <v>69.709999999999994</v>
       </c>
-      <c r="K158" s="56" t="s">
+      <c r="K158" s="60" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158" s="31">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="M158" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N158" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="O158" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="P158" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="52">
         <v>38367.270833333343</v>
       </c>
@@ -7234,14 +10411,34 @@
       <c r="I159" s="32">
         <v>38368.583333333343</v>
       </c>
-      <c r="J159" s="56">
+      <c r="J159" s="60">
         <v>36.85</v>
       </c>
-      <c r="K159" s="56" t="s">
+      <c r="K159" s="60" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159" s="31">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="M159" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N159" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O159" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="P159" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="52">
         <v>38367.962500000001</v>
       </c>
@@ -7269,14 +10466,34 @@
       <c r="I160" s="32">
         <v>38369.5625</v>
       </c>
-      <c r="J160" s="56">
+      <c r="J160" s="60">
         <v>30.88</v>
       </c>
-      <c r="K160" s="56" t="s">
+      <c r="K160" s="60" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160" s="31">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M160" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N160" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O160" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>05</v>
+      </c>
+      <c r="P160" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="52">
         <v>38369.412499999999</v>
       </c>
@@ -7304,14 +10521,34 @@
       <c r="I161" s="32">
         <v>38370.027083333327</v>
       </c>
-      <c r="J161" s="56">
+      <c r="J161" s="60">
         <v>32.869999999999997</v>
       </c>
-      <c r="K161" s="56" t="s">
+      <c r="K161" s="60" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L161" s="31">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="M161" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N161" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O161" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="P161" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="52">
         <v>38372.287499999999</v>
       </c>
@@ -7339,14 +10576,34 @@
       <c r="I162" s="32">
         <v>38373</v>
       </c>
-      <c r="J162" s="56">
+      <c r="J162" s="60">
         <v>28.84</v>
       </c>
-      <c r="K162" s="56" t="s">
+      <c r="K162" s="60" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162" s="31">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="M162" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N162" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O162" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="P162" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="52">
         <v>38396.462500000001</v>
       </c>
@@ -7374,14 +10631,34 @@
       <c r="I163" s="32">
         <v>38400.625</v>
       </c>
-      <c r="J163" s="56">
+      <c r="J163" s="60">
         <v>71.75</v>
       </c>
-      <c r="K163" s="56" t="s">
+      <c r="K163" s="60" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163" s="31">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="M163" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>02</v>
+      </c>
+      <c r="N163" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O163" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="P163" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="52">
         <v>38489.143055555563</v>
       </c>
@@ -7409,14 +10686,34 @@
       <c r="I164" s="32">
         <v>38492.304166666669</v>
       </c>
-      <c r="J164" s="56">
+      <c r="J164" s="60">
         <v>88.18</v>
       </c>
-      <c r="K164" s="56" t="s">
+      <c r="K164" s="60" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164" s="31">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M164" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N164" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O164" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="P164" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="52">
         <v>38498.629166666673</v>
       </c>
@@ -7444,14 +10741,34 @@
       <c r="I165" s="32">
         <v>38500.416666666657</v>
       </c>
-      <c r="J165" s="56">
+      <c r="J165" s="60">
         <v>71.59</v>
       </c>
-      <c r="K165" s="56" t="s">
+      <c r="K165" s="60" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165" s="31">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="M165" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N165" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O165" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="P165" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="52">
         <v>38498.893055555563</v>
       </c>
@@ -7479,14 +10796,34 @@
       <c r="I166" s="32">
         <v>38501.427083333343</v>
       </c>
-      <c r="J166" s="62">
+      <c r="J166" s="60">
         <v>93.67</v>
       </c>
-      <c r="K166" s="56" t="s">
+      <c r="K166" s="60" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166" s="31">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="M166" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N166" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O166" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="P166" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="52">
         <v>38512.60833333333</v>
       </c>
@@ -7514,14 +10851,34 @@
       <c r="I167" s="32">
         <v>38515.65</v>
       </c>
-      <c r="J167" s="56">
+      <c r="J167" s="60">
         <v>101.14</v>
       </c>
-      <c r="K167" s="56" t="s">
+      <c r="K167" s="60" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167" s="31">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M167" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>06</v>
+      </c>
+      <c r="N167" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O167" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="P167" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="52">
         <v>38540.712500000001</v>
       </c>
@@ -7549,14 +10906,34 @@
       <c r="I168" s="32">
         <v>38543.462500000001</v>
       </c>
-      <c r="J168" s="56">
+      <c r="J168" s="60">
         <v>65.180000000000007</v>
       </c>
-      <c r="K168" s="56" t="s">
+      <c r="K168" s="60" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M168" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="N168" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O168" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="P168" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="52">
         <v>38595.479166666657</v>
       </c>
@@ -7584,14 +10961,34 @@
       <c r="I169" s="32">
         <v>38597.793749999997</v>
       </c>
-      <c r="J169" s="56">
+      <c r="J169" s="60">
         <v>58.68</v>
       </c>
-      <c r="K169" s="56" t="s">
+      <c r="K169" s="60" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M169" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="N169" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O169" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="P169" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="52">
         <v>38604.824999999997</v>
       </c>
@@ -7619,14 +11016,34 @@
       <c r="I170" s="32">
         <v>38606.208333333343</v>
       </c>
-      <c r="J170" s="56">
+      <c r="J170" s="60">
         <v>35.04</v>
       </c>
-      <c r="K170" s="56" t="s">
+      <c r="K170" s="60" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170" s="31">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="M170" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="N170" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O170" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>06</v>
+      </c>
+      <c r="P170" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="52">
         <v>38605.911111111112</v>
       </c>
@@ -7654,14 +11071,34 @@
       <c r="I171" s="32">
         <v>38607.833333333343</v>
       </c>
-      <c r="J171" s="56">
+      <c r="J171" s="60">
         <v>38.380000000000003</v>
       </c>
-      <c r="K171" s="56" t="s">
+      <c r="K171" s="60" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171" s="31">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M171" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="N171" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O171" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="P171" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="52">
         <v>38608.833333333343</v>
       </c>
@@ -7689,14 +11126,34 @@
       <c r="I172" s="32">
         <v>38610.6</v>
       </c>
-      <c r="J172" s="56">
+      <c r="J172" s="60">
         <v>38.67</v>
       </c>
-      <c r="K172" s="56" t="s">
+      <c r="K172" s="60" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172" s="31">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="M172" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>09</v>
+      </c>
+      <c r="N172" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="O172" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="P172" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="52">
         <v>38715.873611111107</v>
       </c>
@@ -7724,14 +11181,34 @@
       <c r="I173" s="32">
         <v>38718</v>
       </c>
-      <c r="J173" s="56">
+      <c r="J173" s="60">
         <v>85.1</v>
       </c>
-      <c r="K173" s="56" t="s">
+      <c r="K173" s="60" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L173" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M173" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="N173" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="O173" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="P173" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="52">
         <v>38904.370833333327</v>
       </c>
@@ -7759,14 +11236,34 @@
       <c r="I174" s="32">
         <v>38907.305555555547</v>
       </c>
-      <c r="J174" s="56">
+      <c r="J174" s="60">
         <v>55.68</v>
       </c>
-      <c r="K174" s="56" t="s">
+      <c r="K174" s="60" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174" s="31">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M174" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="N174" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="O174" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="P174" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="52">
         <v>38945.313194444447</v>
       </c>
@@ -7794,14 +11291,34 @@
       <c r="I175" s="32">
         <v>38947.958333333343</v>
       </c>
-      <c r="J175" s="56">
+      <c r="J175" s="60">
         <v>73.510000000000005</v>
       </c>
-      <c r="K175" s="56" t="s">
+      <c r="K175" s="60" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175" s="31">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M175" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="N175" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="O175" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="P175" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="52">
         <v>38945.6875</v>
       </c>
@@ -7829,14 +11346,34 @@
       <c r="I176" s="32">
         <v>38948</v>
       </c>
-      <c r="J176" s="56">
+      <c r="J176" s="60">
         <v>56.43</v>
       </c>
-      <c r="K176" s="56" t="s">
+      <c r="K176" s="60" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176" s="31">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M176" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="N176" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="O176" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="P176" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="52">
         <v>39064.120833333327</v>
       </c>
@@ -7864,14 +11401,34 @@
       <c r="I177" s="32">
         <v>39065.945833333331</v>
       </c>
-      <c r="J177" s="56">
+      <c r="J177" s="60">
         <v>39.68</v>
       </c>
-      <c r="K177" s="56" t="s">
+      <c r="K177" s="60" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L177" s="31">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="M177" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N177" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="O177" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="P177" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="52">
         <v>39065.9375</v>
       </c>
@@ -7899,14 +11456,34 @@
       <c r="I178" s="40">
         <v>39067.1875</v>
       </c>
-      <c r="J178" s="56">
+      <c r="J178" s="60">
         <v>51.95</v>
       </c>
-      <c r="K178" s="56" t="s">
+      <c r="K178" s="60" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178" s="31">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M178" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N178" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="O178" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>02</v>
+      </c>
+      <c r="P178" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="52">
         <v>35701.04791666667</v>
       </c>
@@ -7934,14 +11511,34 @@
       <c r="I179" s="32">
         <v>35704.755937499998</v>
       </c>
-      <c r="J179" s="56">
+      <c r="J179" s="60">
         <v>104.03</v>
       </c>
-      <c r="K179" s="56" t="s">
+      <c r="K179" s="60" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M179" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N179" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>1997</v>
+      </c>
+      <c r="O179" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="P179" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="52">
         <v>35917.230555555558</v>
       </c>
@@ -7969,14 +11566,34 @@
       <c r="I180" s="32">
         <v>35919.230509259258</v>
       </c>
-      <c r="J180" s="56">
+      <c r="J180" s="60">
         <v>75.47</v>
       </c>
-      <c r="K180" s="56" t="s">
+      <c r="K180" s="60" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180" s="31">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M180" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N180" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>1998</v>
+      </c>
+      <c r="O180" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="P180" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="52">
         <v>36283.254166666666</v>
       </c>
@@ -8004,14 +11621,34 @@
       <c r="I181" s="32">
         <v>36286.170891203707</v>
       </c>
-      <c r="J181" s="56">
+      <c r="J181" s="60">
         <v>49.47</v>
       </c>
-      <c r="K181" s="56" t="s">
+      <c r="K181" s="60" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181" s="31">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M181" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="N181" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>1999</v>
+      </c>
+      <c r="O181" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>07</v>
+      </c>
+      <c r="P181" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="52">
         <v>36801.851388888892</v>
       </c>
@@ -8039,14 +11676,34 @@
       <c r="I182" s="32">
         <v>36805.18478009259</v>
       </c>
-      <c r="J182" s="56">
+      <c r="J182" s="60">
         <v>77.23</v>
       </c>
-      <c r="K182" s="56" t="s">
+      <c r="K182" s="60" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182" s="31">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M182" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N182" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O182" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="P182" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="52">
         <v>36986.712500000001</v>
       </c>
@@ -8074,14 +11731,34 @@
       <c r="I183" s="32">
         <v>36988.795891203707</v>
       </c>
-      <c r="J183" s="56">
+      <c r="J183" s="60">
         <v>44.9</v>
       </c>
-      <c r="K183" s="56" t="s">
+      <c r="K183" s="60" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183" s="31">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M183" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>04</v>
+      </c>
+      <c r="N183" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2001</v>
+      </c>
+      <c r="O183" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="P183" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="52">
         <v>37068.520833333336</v>
       </c>
@@ -8109,14 +11786,34 @@
       <c r="I184" s="32">
         <v>37071.104224537034</v>
       </c>
-      <c r="J184" s="56">
+      <c r="J184" s="60">
         <v>52.89</v>
       </c>
-      <c r="K184" s="56" t="s">
+      <c r="K184" s="60" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184" s="31">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="M184" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>06</v>
+      </c>
+      <c r="N184" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2001</v>
+      </c>
+      <c r="O184" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="P184" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="52">
         <v>37452.854166666664</v>
       </c>
@@ -8144,11 +11841,31 @@
       <c r="I185" s="32">
         <v>37455.479224537034</v>
       </c>
-      <c r="J185" s="56">
+      <c r="J185" s="60">
         <v>49.8</v>
       </c>
-      <c r="K185" s="56" t="s">
+      <c r="K185" s="60" t="s">
         <v>342</v>
+      </c>
+      <c r="L185" s="31">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M185" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="N185" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="O185" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="P185" s="31" t="str">
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -13666,14 +17383,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
@@ -17278,14 +20995,14 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="58" t="s">
+      <c r="A183" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="58"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="56"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
     </row>
@@ -18322,16 +22039,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -23014,16 +26731,16 @@
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" s="61" t="s">
+      <c r="A183" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="61"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="61"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="59"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="59"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
     </row>
     <row r="184" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
